--- a/第一组Rocket进度表.xlsx
+++ b/第一组Rocket进度表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ROCKET TEAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ROCKET_TEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,6 +534,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,6 +549,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,253 +576,232 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,79 +809,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="26"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="26"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="31"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2059,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2070,47 +1998,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="80" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="80" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="77" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="80" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="86" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -2194,35 +2122,35 @@
       <c r="DA1" s="8"/>
     </row>
     <row r="2" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="77" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -2306,47 +2234,47 @@
       <c r="DA2" s="9"/>
     </row>
     <row r="3" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="72">
         <v>1</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="88">
+      <c r="J3" s="73"/>
+      <c r="K3" s="63">
         <v>10</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="73" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="39">
+      <c r="N3" s="46"/>
+      <c r="O3" s="49">
         <v>43285</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="39">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="49">
         <v>43286</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="30"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
@@ -2430,29 +2358,29 @@
       <c r="DA3" s="10"/>
     </row>
     <row r="4" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="26"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -2536,31 +2464,31 @@
       <c r="DA4" s="10"/>
     </row>
     <row r="5" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="69" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="30"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -2644,29 +2572,29 @@
       <c r="DA5" s="10"/>
     </row>
     <row r="6" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="26"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -2750,45 +2678,45 @@
       <c r="DA6" s="10"/>
     </row>
     <row r="7" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="72">
         <v>1</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="61">
+      <c r="J7" s="73"/>
+      <c r="K7" s="42">
         <v>10</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="73" t="s">
+      <c r="L7" s="43"/>
+      <c r="M7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="39">
+      <c r="N7" s="46"/>
+      <c r="O7" s="49">
         <v>43285</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="39">
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="49">
         <v>43286</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="23"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -2872,29 +2800,29 @@
       <c r="DA7" s="10"/>
     </row>
     <row r="8" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
@@ -2978,31 +2906,31 @@
       <c r="DA8" s="10"/>
     </row>
     <row r="9" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="69" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="70"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -3086,29 +3014,29 @@
       <c r="DA9" s="10"/>
     </row>
     <row r="10" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="72"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="5"/>
       <c r="S10" s="6"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -3192,45 +3120,45 @@
       <c r="DA10" s="10"/>
     </row>
     <row r="11" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="49" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="62" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="72">
         <v>0</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="61">
+      <c r="J11" s="73"/>
+      <c r="K11" s="42">
         <v>10</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="73" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="74"/>
-      <c r="O11" s="39">
+      <c r="N11" s="46"/>
+      <c r="O11" s="49">
         <v>43286</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="39">
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="49">
         <v>43287</v>
       </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="23"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="30"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -3314,29 +3242,29 @@
       <c r="DA11" s="10"/>
     </row>
     <row r="12" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="26"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -3420,31 +3348,31 @@
       <c r="DA12" s="10"/>
     </row>
     <row r="13" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="69" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="70"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="2"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="30"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -3528,29 +3456,29 @@
       <c r="DA13" s="10"/>
     </row>
     <row r="14" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="72"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="26"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="33"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -3634,47 +3562,47 @@
       <c r="DA14" s="10"/>
     </row>
     <row r="15" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="83"/>
+      <c r="E15" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="84">
         <v>0</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="14">
+      <c r="J15" s="85"/>
+      <c r="K15" s="15">
         <v>10</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="17" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="45">
+      <c r="N15" s="24"/>
+      <c r="O15" s="87">
         <v>43285</v>
       </c>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45">
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87">
         <v>43286</v>
       </c>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="23"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -3758,29 +3686,29 @@
       <c r="DA15" s="10"/>
     </row>
     <row r="16" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="26"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="33"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -3864,31 +3792,31 @@
       <c r="DA16" s="10"/>
     </row>
     <row r="17" spans="1:105" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="18" t="s">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="23"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="30"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
@@ -3972,2414 +3900,2696 @@
       <c r="DA17" s="10"/>
     </row>
     <row r="18" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="26"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="33"/>
     </row>
     <row r="19" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="82"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="84">
         <v>0</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="14">
+      <c r="J19" s="85"/>
+      <c r="K19" s="15">
         <v>10</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="17" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="45">
+      <c r="N19" s="24"/>
+      <c r="O19" s="87">
         <v>43287</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45">
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87">
         <v>43288</v>
       </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="23"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
     </row>
     <row r="20" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="26"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="33"/>
     </row>
     <row r="21" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="18" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="23"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="30"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="26"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
     </row>
     <row r="23" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="14" t="s">
+      <c r="F23" s="82"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="84">
         <v>0</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="14">
+      <c r="J23" s="85"/>
+      <c r="K23" s="15">
         <v>10</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="17" t="s">
+      <c r="L23" s="15"/>
+      <c r="M23" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="45">
+      <c r="N23" s="24"/>
+      <c r="O23" s="87">
         <v>43288</v>
       </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45">
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87">
         <v>43289</v>
       </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="23"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
     </row>
     <row r="24" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="26"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
     </row>
     <row r="25" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="18" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="23"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="30"/>
     </row>
     <row r="26" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="26"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="34" t="s">
+      <c r="D27" s="89"/>
+      <c r="E27" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="90">
         <v>0</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="36">
+      <c r="J27" s="82"/>
+      <c r="K27" s="91">
         <v>4</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="16" t="s">
+      <c r="L27" s="91"/>
+      <c r="M27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="11">
+      <c r="N27" s="24"/>
+      <c r="O27" s="12">
         <v>43285</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11">
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12">
         <v>43285</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="23"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
     </row>
     <row r="28" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="26"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33"/>
     </row>
     <row r="29" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="18" t="s">
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="18"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="23"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
     </row>
     <row r="30" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="26"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="33"/>
     </row>
     <row r="31" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38" t="s">
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="34" t="s">
+      <c r="D31" s="89"/>
+      <c r="E31" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="14" t="s">
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="90">
         <v>0</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="36">
+      <c r="J31" s="82"/>
+      <c r="K31" s="91">
         <v>4</v>
       </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="16" t="s">
+      <c r="L31" s="91"/>
+      <c r="M31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="11">
+      <c r="N31" s="24"/>
+      <c r="O31" s="12">
         <v>43285</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11">
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12">
         <v>43285</v>
       </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="23"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30"/>
     </row>
     <row r="32" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="26"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="33"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="18" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="23"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="30"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="26"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="33"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38" t="s">
+      <c r="A35" s="88"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="34" t="s">
+      <c r="D35" s="89"/>
+      <c r="E35" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="14" t="s">
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="90">
         <v>0</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="36">
+      <c r="J35" s="82"/>
+      <c r="K35" s="91">
         <v>4</v>
       </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="16" t="s">
+      <c r="L35" s="91"/>
+      <c r="M35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="11">
+      <c r="N35" s="24"/>
+      <c r="O35" s="12">
         <v>43286</v>
       </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11">
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12">
         <v>43286</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="23"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="30"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="26"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="33"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="18" t="s">
+      <c r="A37" s="88"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="23"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="30"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="26"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="33"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="89"/>
+      <c r="E39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="14" t="s">
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="90">
         <v>0</v>
       </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="12">
+      <c r="J39" s="82"/>
+      <c r="K39" s="13">
         <v>4</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="16" t="s">
+      <c r="L39" s="13"/>
+      <c r="M39" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="11">
+      <c r="N39" s="24"/>
+      <c r="O39" s="12">
         <v>43286</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11">
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12">
         <v>43286</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="23"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="30"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="26"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="33"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="18" t="s">
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="23"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="30"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="26"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="33"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="92"/>
+      <c r="C43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="14" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="90">
         <v>0</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="12">
+      <c r="J43" s="82"/>
+      <c r="K43" s="13">
         <v>10</v>
       </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="16" t="s">
+      <c r="L43" s="13"/>
+      <c r="M43" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="11">
+      <c r="N43" s="24"/>
+      <c r="O43" s="12">
         <v>43285</v>
       </c>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11">
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12">
         <v>43286</v>
       </c>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="23"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="30"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="26"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="33"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="18" t="s">
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="23"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="30"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="26"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="33"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="13" t="s">
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="14" t="s">
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="90">
         <v>0</v>
       </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="12">
+      <c r="J47" s="82"/>
+      <c r="K47" s="13">
         <v>10</v>
       </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="16" t="s">
+      <c r="L47" s="13"/>
+      <c r="M47" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N47" s="17"/>
-      <c r="O47" s="11">
+      <c r="N47" s="24"/>
+      <c r="O47" s="12">
         <v>43286</v>
       </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11">
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12">
         <v>43287</v>
       </c>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="23"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="30"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="26"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="33"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="18" t="s">
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N49" s="18"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="23"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="30"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="26"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="33"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="92"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="14" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="90">
         <v>0</v>
       </c>
-      <c r="J51" s="34"/>
-      <c r="K51" s="12">
+      <c r="J51" s="82"/>
+      <c r="K51" s="13">
         <v>10</v>
       </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="16" t="s">
+      <c r="L51" s="13"/>
+      <c r="M51" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N51" s="17"/>
-      <c r="O51" s="11">
+      <c r="N51" s="24"/>
+      <c r="O51" s="12">
         <v>43287</v>
       </c>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11">
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12">
         <v>43288</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="23"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="30"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="26"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="33"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="18" t="s">
+      <c r="A53" s="92"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="18"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="23"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="30"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="25"/>
-      <c r="W54" s="26"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="33"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="13" t="s">
+      <c r="A55" s="92"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="14" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="90">
         <v>0</v>
       </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="12">
+      <c r="J55" s="82"/>
+      <c r="K55" s="13">
         <v>10</v>
       </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="16" t="s">
+      <c r="L55" s="13"/>
+      <c r="M55" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="17"/>
-      <c r="O55" s="11">
+      <c r="N55" s="24"/>
+      <c r="O55" s="12">
         <v>43288</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11">
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12">
         <v>43289</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="23"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="30"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="26"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="33"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="18" t="s">
+      <c r="A57" s="92"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="18"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="23"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="30"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="25"/>
-      <c r="W58" s="26"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="33"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="96"/>
+      <c r="C59" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="14" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="90">
         <v>0</v>
       </c>
-      <c r="J59" s="34"/>
-      <c r="K59" s="12">
+      <c r="J59" s="82"/>
+      <c r="K59" s="13">
         <v>10</v>
       </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="16" t="s">
+      <c r="L59" s="13"/>
+      <c r="M59" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="11">
+      <c r="N59" s="24"/>
+      <c r="O59" s="12">
         <v>43285</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11">
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12">
         <v>43286</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="23"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="30"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="26"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="33"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="18" t="s">
+      <c r="A61" s="96"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N61" s="18"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="23"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="30"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="24"/>
-      <c r="V62" s="25"/>
-      <c r="W62" s="26"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="33"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="96"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="14" t="s">
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="90">
         <v>0</v>
       </c>
-      <c r="J63" s="34"/>
-      <c r="K63" s="12">
+      <c r="J63" s="82"/>
+      <c r="K63" s="13">
         <v>10</v>
       </c>
-      <c r="L63" s="12"/>
-      <c r="M63" s="16" t="s">
+      <c r="L63" s="13"/>
+      <c r="M63" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="17"/>
-      <c r="O63" s="11">
+      <c r="N63" s="24"/>
+      <c r="O63" s="12">
         <v>43286</v>
       </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11">
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12">
         <v>43287</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="23"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="30"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="25"/>
-      <c r="W64" s="26"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="33"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="18" t="s">
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N65" s="18"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="23"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="30"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="26"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="33"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="13" t="s">
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13" t="s">
+      <c r="D67" s="13"/>
+      <c r="E67" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="14" t="s">
+      <c r="F67" s="14"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="90">
         <v>0</v>
       </c>
-      <c r="J67" s="34"/>
-      <c r="K67" s="12">
+      <c r="J67" s="82"/>
+      <c r="K67" s="13">
         <v>10</v>
       </c>
-      <c r="L67" s="12"/>
-      <c r="M67" s="16" t="s">
+      <c r="L67" s="13"/>
+      <c r="M67" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N67" s="17"/>
-      <c r="O67" s="11">
+      <c r="N67" s="24"/>
+      <c r="O67" s="12">
         <v>43287</v>
       </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11">
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12">
         <v>43288</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="23"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="30"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="26"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="33"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="18" t="s">
+      <c r="A69" s="96"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N69" s="18"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="23"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="30"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="26"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="33"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="13" t="s">
+      <c r="B71" s="98"/>
+      <c r="C71" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
+      <c r="D71" s="14"/>
+      <c r="E71" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="14" t="s">
+      <c r="F71" s="14"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I71" s="31">
+      <c r="I71" s="93">
         <v>0.5</v>
       </c>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12">
+      <c r="J71" s="13"/>
+      <c r="K71" s="13">
         <v>20</v>
       </c>
-      <c r="L71" s="12"/>
-      <c r="M71" s="16" t="s">
+      <c r="L71" s="13"/>
+      <c r="M71" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N71" s="17"/>
-      <c r="O71" s="11">
+      <c r="N71" s="24"/>
+      <c r="O71" s="12">
         <v>43285</v>
       </c>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11">
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12">
         <v>43287</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="23"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="30"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="25"/>
-      <c r="W72" s="26"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="33"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12">
+      <c r="A73" s="98"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13">
         <v>4</v>
       </c>
-      <c r="L73" s="12"/>
-      <c r="M73" s="18" t="s">
+      <c r="L73" s="13"/>
+      <c r="M73" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N73" s="18"/>
-      <c r="O73" s="11">
+      <c r="N73" s="11"/>
+      <c r="O73" s="12">
         <v>43285</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11">
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12">
         <v>43286</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="23"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="30"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="25"/>
-      <c r="W74" s="26"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="33"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="13" t="s">
+      <c r="B75" s="96"/>
+      <c r="C75" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
+      <c r="D75" s="14"/>
+      <c r="E75" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="14" t="s">
+      <c r="F75" s="14"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I75" s="31">
+      <c r="I75" s="93">
         <v>0</v>
       </c>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12">
+      <c r="J75" s="13"/>
+      <c r="K75" s="13">
         <v>10</v>
       </c>
-      <c r="L75" s="12"/>
-      <c r="M75" s="16" t="s">
+      <c r="L75" s="13"/>
+      <c r="M75" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N75" s="17"/>
-      <c r="O75" s="11">
+      <c r="N75" s="24"/>
+      <c r="O75" s="12">
         <v>43287</v>
       </c>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11">
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12">
         <v>43288</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="23"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="30"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="25"/>
-      <c r="W76" s="26"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="33"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="18" t="s">
+      <c r="A77" s="96"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N77" s="18"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="23"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="30"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="25"/>
-      <c r="W78" s="26"/>
+      <c r="A78" s="96"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="31"/>
+      <c r="V78" s="32"/>
+      <c r="W78" s="33"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="13" t="s">
+      <c r="A79" s="96"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
+      <c r="D79" s="14"/>
+      <c r="E79" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I79" s="31">
+      <c r="F79" s="14"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" s="93">
         <v>0</v>
       </c>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12">
+      <c r="J79" s="13"/>
+      <c r="K79" s="13">
         <v>10</v>
       </c>
-      <c r="L79" s="12"/>
-      <c r="M79" s="16" t="s">
+      <c r="L79" s="13"/>
+      <c r="M79" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N79" s="17"/>
-      <c r="O79" s="11">
+      <c r="N79" s="24"/>
+      <c r="O79" s="12">
         <v>43288</v>
       </c>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11">
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12">
         <v>43289</v>
       </c>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="23"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="30"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="25"/>
-      <c r="W80" s="26"/>
+      <c r="A80" s="96"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="31"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="33"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="18" t="s">
+      <c r="A81" s="96"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N81" s="18"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="23"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="30"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="24"/>
-      <c r="V82" s="25"/>
-      <c r="W82" s="26"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="33"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="17"/>
+      <c r="C83" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13" t="s">
+      <c r="D83" s="13"/>
+      <c r="E83" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="14" t="s">
+      <c r="F83" s="14"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="22">
         <v>1</v>
       </c>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12">
+      <c r="J83" s="13"/>
+      <c r="K83" s="13">
         <v>8</v>
       </c>
-      <c r="L83" s="12"/>
-      <c r="M83" s="16" t="s">
+      <c r="L83" s="13"/>
+      <c r="M83" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N83" s="17"/>
-      <c r="O83" s="11">
+      <c r="N83" s="24"/>
+      <c r="O83" s="12">
         <v>43285</v>
       </c>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11">
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12">
         <v>43285</v>
       </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
-      <c r="W83" s="19"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="100"/>
+      <c r="V83" s="100"/>
+      <c r="W83" s="100"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A84" s="97"/>
-      <c r="B84" s="98"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="W84" s="19"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="100"/>
+      <c r="V84" s="100"/>
+      <c r="W84" s="100"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A85" s="97"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13">
         <v>8</v>
       </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="18" t="s">
+      <c r="L85" s="13"/>
+      <c r="M85" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N85" s="18"/>
-      <c r="O85" s="11">
+      <c r="N85" s="11"/>
+      <c r="O85" s="12">
         <v>43285</v>
       </c>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11">
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12">
         <v>43285</v>
       </c>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="19"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="100"/>
+      <c r="V85" s="100"/>
+      <c r="W85" s="100"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A86" s="97"/>
-      <c r="B86" s="98"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="W86" s="19"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="100"/>
+      <c r="V86" s="100"/>
+      <c r="W86" s="100"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A87" s="97"/>
-      <c r="B87" s="98"/>
-      <c r="C87" s="12" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13" t="s">
+      <c r="D87" s="13"/>
+      <c r="E87" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="14" t="s">
+      <c r="F87" s="14"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I87" s="22">
         <v>1</v>
       </c>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12">
+      <c r="J87" s="13"/>
+      <c r="K87" s="13">
         <v>8</v>
       </c>
-      <c r="L87" s="12"/>
-      <c r="M87" s="16" t="s">
+      <c r="L87" s="13"/>
+      <c r="M87" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N87" s="17"/>
-      <c r="O87" s="11">
+      <c r="N87" s="24"/>
+      <c r="O87" s="12">
         <v>43286</v>
       </c>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11">
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12">
         <v>43286</v>
       </c>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A88" s="97"/>
-      <c r="B88" s="98"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A89" s="97"/>
-      <c r="B89" s="98"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13">
         <v>8</v>
       </c>
-      <c r="L89" s="12"/>
-      <c r="M89" s="18" t="s">
+      <c r="L89" s="13"/>
+      <c r="M89" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N89" s="18"/>
-      <c r="O89" s="11">
+      <c r="N89" s="11"/>
+      <c r="O89" s="12">
         <v>43286</v>
       </c>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11">
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12">
         <v>43286</v>
       </c>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A90" s="97"/>
-      <c r="B90" s="98"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A91" s="97"/>
-      <c r="B91" s="98"/>
-      <c r="C91" s="12" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13" t="s">
+      <c r="D91" s="13"/>
+      <c r="E91" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="14" t="s">
+      <c r="F91" s="14"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I91" s="15">
+      <c r="I91" s="22">
         <v>1</v>
       </c>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12">
+      <c r="J91" s="13"/>
+      <c r="K91" s="13">
         <v>2</v>
       </c>
-      <c r="L91" s="12"/>
-      <c r="M91" s="16" t="s">
+      <c r="L91" s="13"/>
+      <c r="M91" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N91" s="17"/>
-      <c r="O91" s="11">
+      <c r="N91" s="24"/>
+      <c r="O91" s="12">
         <v>43286</v>
       </c>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11">
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12">
         <v>43286</v>
       </c>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A92" s="97"/>
-      <c r="B92" s="98"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A93" s="97"/>
-      <c r="B93" s="98"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13">
         <v>2</v>
       </c>
-      <c r="L93" s="12"/>
-      <c r="M93" s="18" t="s">
+      <c r="L93" s="13"/>
+      <c r="M93" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N93" s="18"/>
-      <c r="O93" s="11">
+      <c r="N93" s="11"/>
+      <c r="O93" s="12">
         <v>43286</v>
       </c>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11">
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12">
         <v>43286</v>
       </c>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A94" s="97"/>
-      <c r="B94" s="98"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A95" s="97"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="12" t="s">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13" t="s">
+      <c r="D95" s="13"/>
+      <c r="E95" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="14" t="s">
+      <c r="F95" s="14"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I95" s="15">
+      <c r="I95" s="22">
         <v>1</v>
       </c>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12">
+      <c r="J95" s="13"/>
+      <c r="K95" s="13">
         <v>8</v>
       </c>
-      <c r="L95" s="12"/>
-      <c r="M95" s="16" t="s">
+      <c r="L95" s="13"/>
+      <c r="M95" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N95" s="17"/>
-      <c r="O95" s="11">
+      <c r="N95" s="24"/>
+      <c r="O95" s="12">
         <v>43287</v>
       </c>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11">
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12">
         <v>43287</v>
       </c>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A96" s="97"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A97" s="97"/>
-      <c r="B97" s="98"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13">
         <v>8</v>
       </c>
-      <c r="L97" s="12"/>
-      <c r="M97" s="18" t="s">
+      <c r="L97" s="13"/>
+      <c r="M97" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N97" s="18"/>
-      <c r="O97" s="11">
+      <c r="N97" s="11"/>
+      <c r="O97" s="12">
         <v>43287</v>
       </c>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11">
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12">
         <v>43287</v>
       </c>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A98" s="99"/>
-      <c r="B98" s="100"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="346">
-    <mergeCell ref="M89:N90"/>
-    <mergeCell ref="R83:T84"/>
-    <mergeCell ref="R85:T86"/>
-    <mergeCell ref="C95:D98"/>
-    <mergeCell ref="E95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="A83:B98"/>
-    <mergeCell ref="I95:J98"/>
-    <mergeCell ref="K95:L96"/>
-    <mergeCell ref="K97:L98"/>
-    <mergeCell ref="M95:N96"/>
-    <mergeCell ref="M97:N98"/>
-    <mergeCell ref="O95:Q96"/>
-    <mergeCell ref="O97:Q98"/>
-    <mergeCell ref="R95:T96"/>
-    <mergeCell ref="R97:T98"/>
+    <mergeCell ref="K93:L94"/>
+    <mergeCell ref="M91:N92"/>
+    <mergeCell ref="M93:N94"/>
+    <mergeCell ref="O91:Q92"/>
+    <mergeCell ref="O87:Q88"/>
+    <mergeCell ref="O89:Q90"/>
+    <mergeCell ref="R87:T88"/>
+    <mergeCell ref="R89:T90"/>
+    <mergeCell ref="C87:D90"/>
+    <mergeCell ref="E87:G90"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="I87:J90"/>
+    <mergeCell ref="K87:L88"/>
+    <mergeCell ref="K89:L90"/>
+    <mergeCell ref="M87:N88"/>
+    <mergeCell ref="U83:W84"/>
+    <mergeCell ref="U85:W86"/>
+    <mergeCell ref="C83:D86"/>
+    <mergeCell ref="E83:G86"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="I83:J86"/>
+    <mergeCell ref="K83:L84"/>
+    <mergeCell ref="K85:L86"/>
+    <mergeCell ref="M83:N84"/>
+    <mergeCell ref="M85:N86"/>
+    <mergeCell ref="O83:Q84"/>
+    <mergeCell ref="O85:Q86"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="U79:W80"/>
+    <mergeCell ref="U81:W82"/>
+    <mergeCell ref="U67:W68"/>
+    <mergeCell ref="U69:W70"/>
+    <mergeCell ref="U71:W72"/>
+    <mergeCell ref="U73:W74"/>
+    <mergeCell ref="U75:W76"/>
+    <mergeCell ref="U57:W58"/>
+    <mergeCell ref="U59:W60"/>
+    <mergeCell ref="U61:W62"/>
+    <mergeCell ref="U63:W64"/>
+    <mergeCell ref="U65:W66"/>
+    <mergeCell ref="U51:W52"/>
+    <mergeCell ref="U53:W54"/>
+    <mergeCell ref="U55:W56"/>
+    <mergeCell ref="U37:W38"/>
+    <mergeCell ref="U39:W40"/>
+    <mergeCell ref="U41:W42"/>
+    <mergeCell ref="U43:W44"/>
+    <mergeCell ref="U45:W46"/>
+    <mergeCell ref="U77:W78"/>
+    <mergeCell ref="A75:B82"/>
+    <mergeCell ref="A71:B74"/>
+    <mergeCell ref="U11:W12"/>
+    <mergeCell ref="U15:W16"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="U19:W20"/>
+    <mergeCell ref="U21:W22"/>
+    <mergeCell ref="U23:W24"/>
+    <mergeCell ref="U25:W26"/>
+    <mergeCell ref="U27:W28"/>
+    <mergeCell ref="U29:W30"/>
+    <mergeCell ref="U31:W32"/>
+    <mergeCell ref="U33:W34"/>
+    <mergeCell ref="U35:W36"/>
+    <mergeCell ref="R75:T76"/>
+    <mergeCell ref="R77:T78"/>
+    <mergeCell ref="R79:T80"/>
+    <mergeCell ref="R81:T82"/>
+    <mergeCell ref="O75:Q76"/>
+    <mergeCell ref="O77:Q78"/>
+    <mergeCell ref="O79:Q80"/>
+    <mergeCell ref="O81:Q82"/>
+    <mergeCell ref="U47:W48"/>
+    <mergeCell ref="U49:W50"/>
+    <mergeCell ref="M81:N82"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="K79:L80"/>
+    <mergeCell ref="K81:L82"/>
+    <mergeCell ref="O69:Q70"/>
+    <mergeCell ref="R69:T70"/>
+    <mergeCell ref="K71:L72"/>
+    <mergeCell ref="K73:L74"/>
+    <mergeCell ref="M71:N72"/>
+    <mergeCell ref="M73:N74"/>
+    <mergeCell ref="O71:Q72"/>
+    <mergeCell ref="O73:Q74"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="R73:T74"/>
+    <mergeCell ref="K75:L76"/>
+    <mergeCell ref="M75:N76"/>
+    <mergeCell ref="M79:N80"/>
+    <mergeCell ref="M77:N78"/>
+    <mergeCell ref="O63:Q64"/>
+    <mergeCell ref="R63:T64"/>
+    <mergeCell ref="O65:Q66"/>
+    <mergeCell ref="R65:T66"/>
+    <mergeCell ref="O67:Q68"/>
+    <mergeCell ref="R67:T68"/>
+    <mergeCell ref="A59:B70"/>
+    <mergeCell ref="K59:L60"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="K63:L64"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="K67:L68"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="C63:D66"/>
+    <mergeCell ref="C67:D70"/>
+    <mergeCell ref="C79:D82"/>
+    <mergeCell ref="E79:G82"/>
+    <mergeCell ref="I79:J82"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="R55:T56"/>
+    <mergeCell ref="R57:T58"/>
+    <mergeCell ref="C75:D78"/>
+    <mergeCell ref="E75:G78"/>
+    <mergeCell ref="I75:J78"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="M63:N64"/>
+    <mergeCell ref="M67:N68"/>
+    <mergeCell ref="M61:N62"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="M69:N70"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="R59:T60"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="R61:T62"/>
+    <mergeCell ref="I63:J66"/>
+    <mergeCell ref="I67:J70"/>
+    <mergeCell ref="I71:J74"/>
+    <mergeCell ref="I59:J62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="R43:T44"/>
+    <mergeCell ref="R45:T46"/>
+    <mergeCell ref="R47:T48"/>
+    <mergeCell ref="R49:T50"/>
+    <mergeCell ref="R51:T52"/>
+    <mergeCell ref="M57:N58"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="O47:Q48"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O53:Q54"/>
+    <mergeCell ref="O55:Q56"/>
+    <mergeCell ref="O57:Q58"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="M55:N56"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="M53:N54"/>
+    <mergeCell ref="A43:B58"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="K53:L54"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="K57:L58"/>
+    <mergeCell ref="I43:J46"/>
+    <mergeCell ref="I47:J50"/>
+    <mergeCell ref="I51:J54"/>
+    <mergeCell ref="I55:J58"/>
+    <mergeCell ref="C71:D74"/>
+    <mergeCell ref="E47:G50"/>
+    <mergeCell ref="E51:G54"/>
+    <mergeCell ref="E55:G58"/>
+    <mergeCell ref="E59:G62"/>
+    <mergeCell ref="E63:G66"/>
+    <mergeCell ref="E67:G70"/>
+    <mergeCell ref="E71:G74"/>
+    <mergeCell ref="C43:D46"/>
+    <mergeCell ref="E43:G46"/>
+    <mergeCell ref="C47:D50"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O39:Q40"/>
+    <mergeCell ref="R39:T40"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="R41:T42"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O35:Q36"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="O37:Q38"/>
+    <mergeCell ref="R37:T38"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O31:Q32"/>
+    <mergeCell ref="R31:T32"/>
+    <mergeCell ref="O33:Q34"/>
+    <mergeCell ref="R33:T34"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="O27:Q28"/>
+    <mergeCell ref="R27:T28"/>
+    <mergeCell ref="O29:Q30"/>
+    <mergeCell ref="R29:T30"/>
+    <mergeCell ref="A27:B42"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="E27:G30"/>
+    <mergeCell ref="I27:J30"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="E31:G34"/>
+    <mergeCell ref="I31:J34"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="E35:G38"/>
+    <mergeCell ref="I35:J38"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="E39:G42"/>
+    <mergeCell ref="I39:J42"/>
+    <mergeCell ref="O17:Q18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="R21:T22"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="R15:T16"/>
+    <mergeCell ref="R19:T20"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="O25:Q26"/>
+    <mergeCell ref="R25:T26"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="A15:B26"/>
+    <mergeCell ref="I19:J22"/>
+    <mergeCell ref="I23:J26"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="E3:G6"/>
+    <mergeCell ref="I3:J6"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E7:G10"/>
+    <mergeCell ref="E11:G14"/>
+    <mergeCell ref="I7:J10"/>
+    <mergeCell ref="I11:J14"/>
+    <mergeCell ref="E15:G18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="I15:J18"/>
+    <mergeCell ref="E19:G22"/>
+    <mergeCell ref="E23:G26"/>
+    <mergeCell ref="U13:W14"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="U5:W6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:T8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A2:B2"/>
@@ -6404,289 +6614,22 @@
     <mergeCell ref="R3:T4"/>
     <mergeCell ref="U3:W4"/>
     <mergeCell ref="A3:B14"/>
-    <mergeCell ref="U13:W14"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="U7:W8"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="U5:W6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:T8"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="E3:G6"/>
-    <mergeCell ref="I3:J6"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E7:G10"/>
-    <mergeCell ref="E11:G14"/>
-    <mergeCell ref="I7:J10"/>
-    <mergeCell ref="I11:J14"/>
-    <mergeCell ref="E15:G18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="I15:J18"/>
-    <mergeCell ref="E19:G22"/>
-    <mergeCell ref="E23:G26"/>
-    <mergeCell ref="A15:B26"/>
-    <mergeCell ref="I19:J22"/>
-    <mergeCell ref="I23:J26"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="O17:Q18"/>
-    <mergeCell ref="R17:T18"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="R21:T22"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="O15:Q16"/>
-    <mergeCell ref="O19:Q20"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="R15:T16"/>
-    <mergeCell ref="R19:T20"/>
-    <mergeCell ref="R23:T24"/>
-    <mergeCell ref="O25:Q26"/>
-    <mergeCell ref="R25:T26"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="A27:B42"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="E27:G30"/>
-    <mergeCell ref="I27:J30"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="E31:G34"/>
-    <mergeCell ref="I31:J34"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="E35:G38"/>
-    <mergeCell ref="I35:J38"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="E39:G42"/>
-    <mergeCell ref="I39:J42"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O31:Q32"/>
-    <mergeCell ref="R31:T32"/>
-    <mergeCell ref="O33:Q34"/>
-    <mergeCell ref="R33:T34"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="O27:Q28"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="R29:T30"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="R39:T40"/>
-    <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="R41:T42"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O35:Q36"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="O37:Q38"/>
-    <mergeCell ref="R37:T38"/>
-    <mergeCell ref="C71:D74"/>
-    <mergeCell ref="E47:G50"/>
-    <mergeCell ref="E51:G54"/>
-    <mergeCell ref="E55:G58"/>
-    <mergeCell ref="E59:G62"/>
-    <mergeCell ref="E63:G66"/>
-    <mergeCell ref="E67:G70"/>
-    <mergeCell ref="E71:G74"/>
-    <mergeCell ref="C43:D46"/>
-    <mergeCell ref="E43:G46"/>
-    <mergeCell ref="C47:D50"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="A43:B58"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="K53:L54"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="K57:L58"/>
-    <mergeCell ref="I43:J46"/>
-    <mergeCell ref="I47:J50"/>
-    <mergeCell ref="I51:J54"/>
-    <mergeCell ref="I55:J58"/>
-    <mergeCell ref="R43:T44"/>
-    <mergeCell ref="R45:T46"/>
-    <mergeCell ref="R47:T48"/>
-    <mergeCell ref="R49:T50"/>
-    <mergeCell ref="R51:T52"/>
-    <mergeCell ref="M57:N58"/>
-    <mergeCell ref="O43:Q44"/>
-    <mergeCell ref="O45:Q46"/>
-    <mergeCell ref="O47:Q48"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="O51:Q52"/>
-    <mergeCell ref="O53:Q54"/>
-    <mergeCell ref="O55:Q56"/>
-    <mergeCell ref="O57:Q58"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="M55:N56"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="M53:N54"/>
-    <mergeCell ref="C79:D82"/>
-    <mergeCell ref="E79:G82"/>
-    <mergeCell ref="I79:J82"/>
-    <mergeCell ref="R53:T54"/>
-    <mergeCell ref="R55:T56"/>
-    <mergeCell ref="R57:T58"/>
-    <mergeCell ref="C75:D78"/>
-    <mergeCell ref="E75:G78"/>
-    <mergeCell ref="I75:J78"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="M63:N64"/>
-    <mergeCell ref="M67:N68"/>
-    <mergeCell ref="M61:N62"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="M69:N70"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="R59:T60"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="R61:T62"/>
-    <mergeCell ref="I63:J66"/>
-    <mergeCell ref="I67:J70"/>
-    <mergeCell ref="I71:J74"/>
-    <mergeCell ref="I59:J62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="O63:Q64"/>
-    <mergeCell ref="R63:T64"/>
-    <mergeCell ref="O65:Q66"/>
-    <mergeCell ref="R65:T66"/>
-    <mergeCell ref="O67:Q68"/>
-    <mergeCell ref="R67:T68"/>
-    <mergeCell ref="A59:B70"/>
-    <mergeCell ref="K59:L60"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="K63:L64"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="K67:L68"/>
-    <mergeCell ref="K69:L70"/>
-    <mergeCell ref="C63:D66"/>
-    <mergeCell ref="C67:D70"/>
-    <mergeCell ref="M81:N82"/>
-    <mergeCell ref="K77:L78"/>
-    <mergeCell ref="K79:L80"/>
-    <mergeCell ref="K81:L82"/>
-    <mergeCell ref="O69:Q70"/>
-    <mergeCell ref="R69:T70"/>
-    <mergeCell ref="K71:L72"/>
-    <mergeCell ref="K73:L74"/>
-    <mergeCell ref="M71:N72"/>
-    <mergeCell ref="M73:N74"/>
-    <mergeCell ref="O71:Q72"/>
-    <mergeCell ref="O73:Q74"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="R73:T74"/>
-    <mergeCell ref="K75:L76"/>
-    <mergeCell ref="M75:N76"/>
-    <mergeCell ref="M79:N80"/>
-    <mergeCell ref="M77:N78"/>
-    <mergeCell ref="A75:B82"/>
-    <mergeCell ref="A71:B74"/>
-    <mergeCell ref="U11:W12"/>
-    <mergeCell ref="U15:W16"/>
-    <mergeCell ref="U17:W18"/>
-    <mergeCell ref="U19:W20"/>
-    <mergeCell ref="U21:W22"/>
-    <mergeCell ref="U23:W24"/>
-    <mergeCell ref="U25:W26"/>
-    <mergeCell ref="U27:W28"/>
-    <mergeCell ref="U29:W30"/>
-    <mergeCell ref="U31:W32"/>
-    <mergeCell ref="U33:W34"/>
-    <mergeCell ref="U35:W36"/>
-    <mergeCell ref="R75:T76"/>
-    <mergeCell ref="R77:T78"/>
-    <mergeCell ref="R79:T80"/>
-    <mergeCell ref="R81:T82"/>
-    <mergeCell ref="O75:Q76"/>
-    <mergeCell ref="O77:Q78"/>
-    <mergeCell ref="O79:Q80"/>
-    <mergeCell ref="O81:Q82"/>
-    <mergeCell ref="U47:W48"/>
-    <mergeCell ref="U49:W50"/>
-    <mergeCell ref="U51:W52"/>
-    <mergeCell ref="U53:W54"/>
-    <mergeCell ref="U55:W56"/>
-    <mergeCell ref="U37:W38"/>
-    <mergeCell ref="U39:W40"/>
-    <mergeCell ref="U41:W42"/>
-    <mergeCell ref="U43:W44"/>
-    <mergeCell ref="U45:W46"/>
-    <mergeCell ref="U77:W78"/>
-    <mergeCell ref="U79:W80"/>
-    <mergeCell ref="U81:W82"/>
-    <mergeCell ref="U67:W68"/>
-    <mergeCell ref="U69:W70"/>
-    <mergeCell ref="U71:W72"/>
-    <mergeCell ref="U73:W74"/>
-    <mergeCell ref="U75:W76"/>
-    <mergeCell ref="U57:W58"/>
-    <mergeCell ref="U59:W60"/>
-    <mergeCell ref="U61:W62"/>
-    <mergeCell ref="U63:W64"/>
-    <mergeCell ref="U65:W66"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="U83:W84"/>
-    <mergeCell ref="U85:W86"/>
-    <mergeCell ref="C83:D86"/>
-    <mergeCell ref="E83:G86"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="I83:J86"/>
-    <mergeCell ref="K83:L84"/>
-    <mergeCell ref="K85:L86"/>
-    <mergeCell ref="M83:N84"/>
-    <mergeCell ref="M85:N86"/>
-    <mergeCell ref="O83:Q84"/>
-    <mergeCell ref="O85:Q86"/>
+    <mergeCell ref="M89:N90"/>
+    <mergeCell ref="R83:T84"/>
+    <mergeCell ref="R85:T86"/>
+    <mergeCell ref="C95:D98"/>
+    <mergeCell ref="E95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="A83:B98"/>
+    <mergeCell ref="I95:J98"/>
+    <mergeCell ref="K95:L96"/>
+    <mergeCell ref="K97:L98"/>
+    <mergeCell ref="M95:N96"/>
+    <mergeCell ref="M97:N98"/>
+    <mergeCell ref="O95:Q96"/>
+    <mergeCell ref="O97:Q98"/>
+    <mergeCell ref="R95:T96"/>
+    <mergeCell ref="R97:T98"/>
     <mergeCell ref="R91:T92"/>
     <mergeCell ref="O93:Q94"/>
     <mergeCell ref="R93:T94"/>
@@ -6695,449 +6638,434 @@
     <mergeCell ref="H91:H94"/>
     <mergeCell ref="I91:J94"/>
     <mergeCell ref="K91:L92"/>
-    <mergeCell ref="K93:L94"/>
-    <mergeCell ref="M91:N92"/>
-    <mergeCell ref="M93:N94"/>
-    <mergeCell ref="O91:Q92"/>
-    <mergeCell ref="O87:Q88"/>
-    <mergeCell ref="O89:Q90"/>
-    <mergeCell ref="R87:T88"/>
-    <mergeCell ref="R89:T90"/>
-    <mergeCell ref="C87:D90"/>
-    <mergeCell ref="E87:G90"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="I87:J90"/>
-    <mergeCell ref="K87:L88"/>
-    <mergeCell ref="K89:L90"/>
-    <mergeCell ref="M87:N88"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="Y1:DA1 H1">
-    <cfRule type="expression" dxfId="95" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="262" stopIfTrue="1">
       <formula>H2=$A$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="263" stopIfTrue="1">
       <formula>AND(H2&gt;=$A$1,H2&lt;=$A$2,H1&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="264" stopIfTrue="1">
       <formula>AND(H2&gt;=$A$1,H2&lt;=$A$2,H1="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:DA2">
-    <cfRule type="expression" dxfId="92" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="260" stopIfTrue="1">
       <formula>#REF!="休"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="261" stopIfTrue="1">
       <formula>#REF!="勤"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="90" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="159" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O7="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="89" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="157" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R7="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="88" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="158" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O11="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="expression" dxfId="87" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="156" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R11="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="86" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="250" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R13="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:DA16">
-    <cfRule type="expression" dxfId="85" priority="1165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="1165" stopIfTrue="1">
       <formula>#REF!="休"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="1166" stopIfTrue="1">
       <formula>AND(OR(#REF!&lt;&gt;"",#REF!&lt;&gt;""),#REF!&gt;=#REF!,#REF!&lt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="1167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="1167" stopIfTrue="1">
       <formula>AND(#REF!&gt;=$A$1,#REF!&lt;=$A$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:DA17">
-    <cfRule type="expression" dxfId="82" priority="1168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="1168" stopIfTrue="1">
       <formula>#REF!="休"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="1169" stopIfTrue="1">
       <formula>AND(OR(#REF!&lt;&gt;"",#REF!&lt;&gt;""),#REF!&gt;=#REF!,#REF!&lt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="1170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="1170" stopIfTrue="1">
       <formula>AND(#REF!&gt;=$A$1,#REF!&lt;=$A$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C3">
-    <cfRule type="expression" dxfId="79" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="271" stopIfTrue="1">
       <formula>C3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 O5">
-    <cfRule type="expression" dxfId="78" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="180" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O3="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3 R5">
-    <cfRule type="expression" dxfId="77" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="179" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R3="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:DA13 Y11:DA11 Y5:DA5 Y7:DA7 Y9:DA9 Y3:DA3 H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47 H51 H55 H59 H63 H67 H71 H75 H79">
-    <cfRule type="expression" dxfId="76" priority="1033" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="1033" stopIfTrue="1">
       <formula>#REF!="休"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1034" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="1034" stopIfTrue="1">
       <formula>AND(OR(#REF!&lt;&gt;"",#REF!&lt;&gt;""),#REF!&gt;=#REF!,#REF!&lt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1035" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="1035" stopIfTrue="1">
       <formula>AND(#REF!&gt;=$A$1,#REF!&lt;=$A$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:DA10 Y8:DA8 Y12:DA12 Y6:DA6 Y4:DA4 Y14:DA15">
-    <cfRule type="expression" dxfId="73" priority="1099" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="1099" stopIfTrue="1">
       <formula>#REF!="休"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="1100" stopIfTrue="1">
       <formula>AND(OR(#REF!&lt;&gt;"",#REF!&lt;&gt;""),#REF!&gt;=#REF!,#REF!&lt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="1101" stopIfTrue="1">
       <formula>AND(#REF!&gt;=$A$1,#REF!&lt;=$A$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9 O13 R9">
-    <cfRule type="expression" dxfId="70" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="255" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O9="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="69" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="155" stopIfTrue="1">
       <formula>C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="expression" dxfId="68" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="153" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O15="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="expression" dxfId="67" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="152" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O19="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="66" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="151" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O23="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="expression" dxfId="65" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="146" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R17="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="expression" dxfId="64" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="145" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O17="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="expression" dxfId="63" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="144" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O21="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="expression" dxfId="62" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="142" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R21="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="expression" dxfId="61" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="140" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O25="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="expression" dxfId="60" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="139" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R25="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="expression" dxfId="59" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="137" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R15="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="expression" dxfId="58" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="136" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R19="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="expression" dxfId="57" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="135" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R23="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A29">
-    <cfRule type="expression" dxfId="56" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="134" stopIfTrue="1">
       <formula>A27=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27 O29">
-    <cfRule type="expression" dxfId="55" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="131" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O27="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27 R29">
-    <cfRule type="expression" dxfId="54" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="127" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R27="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31 O33">
-    <cfRule type="expression" dxfId="53" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="130" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O31="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31 R33">
-    <cfRule type="expression" dxfId="52" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="126" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R31="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35 O37">
-    <cfRule type="expression" dxfId="51" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="129" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O35="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35 R37">
-    <cfRule type="expression" dxfId="50" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="125" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R35="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39 O41">
-    <cfRule type="expression" dxfId="49" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="128" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O39="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39 R41">
-    <cfRule type="expression" dxfId="48" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="123" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R39="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45">
-    <cfRule type="expression" dxfId="47" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="121" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O45="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49">
-    <cfRule type="expression" dxfId="46" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="119" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O49="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O69">
-    <cfRule type="expression" dxfId="45" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="88" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O69="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53">
-    <cfRule type="expression" dxfId="44" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="117" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O53="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R69">
-    <cfRule type="expression" dxfId="43" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="87" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R69="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57">
-    <cfRule type="expression" dxfId="42" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="115" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O57="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O59">
-    <cfRule type="expression" dxfId="41" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="86" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O59="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45">
-    <cfRule type="expression" dxfId="40" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="113" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R45="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O63">
-    <cfRule type="expression" dxfId="39" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="85" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O63="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R49">
-    <cfRule type="expression" dxfId="38" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="111" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R49="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67">
-    <cfRule type="expression" dxfId="37" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="84" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O67="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53">
-    <cfRule type="expression" dxfId="36" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="109" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R53="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59">
-    <cfRule type="expression" dxfId="35" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="83" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R59="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57">
-    <cfRule type="expression" dxfId="34" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="107" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R57="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="expression" dxfId="33" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="106" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O43="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="expression" dxfId="32" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="105" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O47="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51">
-    <cfRule type="expression" dxfId="31" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="104" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O51="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="expression" dxfId="30" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="103" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O55="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43">
-    <cfRule type="expression" dxfId="29" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="102" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R43="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R47">
-    <cfRule type="expression" dxfId="28" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="101" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R47="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R51">
-    <cfRule type="expression" dxfId="27" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="100" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R51="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R55">
-    <cfRule type="expression" dxfId="26" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="99" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R55="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O61">
-    <cfRule type="expression" dxfId="25" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="96" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O61="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R61">
-    <cfRule type="expression" dxfId="24" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="95" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R61="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="expression" dxfId="23" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="92" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O65="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R65">
-    <cfRule type="expression" dxfId="22" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="91" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R65="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71 O73">
-    <cfRule type="expression" dxfId="21" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="80" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O71="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R63">
-    <cfRule type="expression" dxfId="20" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="82" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R63="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R67">
-    <cfRule type="expression" dxfId="19" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="81" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R67="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O77 O81 O83 R83 O85 R85 O87 O89 R87 R89">
-    <cfRule type="expression" dxfId="18" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="79" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O77="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R77 R81">
-    <cfRule type="expression" dxfId="17" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="77" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R77="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R71 R73">
-    <cfRule type="expression" dxfId="16" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="75" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R71="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O75">
-    <cfRule type="expression" dxfId="15" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="74" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O75="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R75">
-    <cfRule type="expression" dxfId="14" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="73" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R75="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O79">
-    <cfRule type="expression" dxfId="13" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="72" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O79="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R79">
-    <cfRule type="expression" dxfId="12" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R79="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83 H87 H91 H95">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>#REF!="休"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND(OR(#REF!&lt;&gt;"",#REF!&lt;&gt;""),#REF!&gt;=#REF!,#REF!&lt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND(#REF!&gt;=$A$1,#REF!&lt;=$A$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O91">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O91="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R91">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R91="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93 O95 O97">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",O93="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R93 R95 R97">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND(#REF!&lt;&gt;"",R93="")</formula>
     </cfRule>
   </conditionalFormatting>
